--- a/Data/msft_regression_data.xlsx
+++ b/Data/msft_regression_data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.ramosb\OneDrive - OneSource Corp\Documents\Data Science Projects\MSFT-EBITDA-Regression-Studio\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.ramosb\Documents\Data Science Projects\MSFT-EBITDA-Regression-Studio\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2C2924-1340-45CA-865D-48F76CE7ADFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA509D7D-4CB3-42DD-8ECD-F40D7D84431A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{416C1B1F-6E40-4B76-B183-01AC8CD97CEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{416C1B1F-6E40-4B76-B183-01AC8CD97CEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Full_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Clean_Data" sheetId="2" r:id="rId2"/>
+    <sheet name="EBITDA_Model_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
